--- a/ListasDatos/Medina Tolentino Elio_2021.xlsx
+++ b/ListasDatos/Medina Tolentino Elio_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="508">
   <si>
     <t>NC</t>
   </si>
@@ -392,7 +392,7 @@
     <t>2721319968</t>
   </si>
   <si>
-    <t>2722287536</t>
+    <t>2721279750</t>
   </si>
   <si>
     <t>2722466200</t>
@@ -524,6 +524,9 @@
     <t>JOSE ADRIAN ALCÁNTARA CHICO</t>
   </si>
   <si>
+    <t>MIRIAM GONZÁLEZ AGUILAR</t>
+  </si>
+  <si>
     <t>OSVALDO CASTILLO GARCIA</t>
   </si>
   <si>
@@ -572,6 +575,9 @@
     <t>HILDA ZAPATA ARROYO</t>
   </si>
   <si>
+    <t>AIDA MÉNDOZA GONZÁLEZ</t>
+  </si>
+  <si>
     <t>VÍCTOR MIXCOHUA CASTILLO</t>
   </si>
   <si>
@@ -611,6 +617,12 @@
     <t>CESAR SANTILLANA LOPEZ</t>
   </si>
   <si>
+    <t>JOAQUÍN TREJO MEJÍA</t>
+  </si>
+  <si>
+    <t>miriamgonzi84@gmail.com</t>
+  </si>
+  <si>
     <t>evangelio0.1bgc@gmail.com</t>
   </si>
   <si>
@@ -686,6 +698,9 @@
     <t>2721634883</t>
   </si>
   <si>
+    <t>2721322441</t>
+  </si>
+  <si>
     <t>2721437274</t>
   </si>
   <si>
@@ -1034,7 +1049,7 @@
     <t>loganzurielm@gmail.com</t>
   </si>
   <si>
-    <t>yairprz26@gmail.com</t>
+    <t>yair26prz@gmail.com</t>
   </si>
   <si>
     <t>esrammm2503@gmail.com</t>
@@ -1253,6 +1268,9 @@
     <t>ROSAURA BONILLA BAUTISTA</t>
   </si>
   <si>
+    <t>BLANCA ESTELA SANDOVAL DÍAZ</t>
+  </si>
+  <si>
     <t>VALENTE CLEMENTE IXMATLAHUA</t>
   </si>
   <si>
@@ -1337,6 +1355,9 @@
     <t>VICENTE VALENCIA ZAMORA</t>
   </si>
   <si>
+    <t>MARÍA TEREZA RÓDRIGUEZ LOPEZ</t>
+  </si>
+  <si>
     <t>RAMIRO VEGA MUÑOZ</t>
   </si>
   <si>
@@ -1418,6 +1439,9 @@
     <t>Chirrin440@gmail.com</t>
   </si>
   <si>
+    <t>Maytequila133@gmail.com</t>
+  </si>
+  <si>
     <t>ramivega.1296@gmail.com</t>
   </si>
   <si>
@@ -1509,6 +1533,9 @@
   </si>
   <si>
     <t>2722132775</t>
+  </si>
+  <si>
+    <t>2721270249</t>
   </si>
   <si>
     <t>2721972586</t>
@@ -1942,7 +1969,7 @@
         <v>168</v>
       </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1964,6 +1991,15 @@
       <c r="F3" t="s">
         <v>125</v>
       </c>
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -1988,13 +2024,13 @@
         <v>156</v>
       </c>
       <c r="H4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2020,13 +2056,13 @@
         <v>157</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2052,13 +2088,13 @@
         <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2084,13 +2120,13 @@
         <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I7" t="s">
         <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2116,7 +2152,7 @@
         <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I8" t="s">
         <v>97</v>
@@ -2142,13 +2178,13 @@
         <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2174,13 +2210,13 @@
         <v>158</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2206,13 +2242,13 @@
         <v>159</v>
       </c>
       <c r="H11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2238,13 +2274,13 @@
         <v>134</v>
       </c>
       <c r="H12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2270,13 +2306,13 @@
         <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J13" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2302,13 +2338,13 @@
         <v>136</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J14" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2334,10 +2370,10 @@
         <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2363,13 +2399,13 @@
         <v>138</v>
       </c>
       <c r="H16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I16" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J16" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2395,13 +2431,13 @@
         <v>139</v>
       </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J17" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2427,13 +2463,13 @@
         <v>162</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J18" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2459,10 +2495,10 @@
         <v>141</v>
       </c>
       <c r="H19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
         <v>141</v>
@@ -2487,6 +2523,9 @@
       <c r="F20" t="s">
         <v>142</v>
       </c>
+      <c r="H20" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
@@ -2511,13 +2550,13 @@
         <v>143</v>
       </c>
       <c r="H21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2540,7 +2579,7 @@
         <v>144</v>
       </c>
       <c r="H22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2566,10 +2605,10 @@
         <v>163</v>
       </c>
       <c r="H23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
         <v>163</v>
@@ -2595,13 +2634,13 @@
         <v>146</v>
       </c>
       <c r="H24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2627,13 +2666,13 @@
         <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2659,13 +2698,13 @@
         <v>164</v>
       </c>
       <c r="H26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2691,13 +2730,13 @@
         <v>165</v>
       </c>
       <c r="H27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2723,13 +2762,13 @@
         <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2752,13 +2791,13 @@
         <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2784,13 +2823,13 @@
         <v>152</v>
       </c>
       <c r="H30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2813,13 +2852,13 @@
         <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I31" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2845,13 +2884,13 @@
         <v>153</v>
       </c>
       <c r="H32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2874,10 +2913,10 @@
         <v>154</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2898,6 +2937,9 @@
       </c>
       <c r="F34" t="s">
         <v>155</v>
+      </c>
+      <c r="H34" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2959,28 +3001,28 @@
         <v>19330051920003</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="J2" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2988,28 +3030,28 @@
         <v>19330051920005</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="I3" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="J3" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3017,28 +3059,28 @@
         <v>19330051920004</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="I4" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="J4" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3046,31 +3088,31 @@
         <v>19330051920006</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="I5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="J5" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3081,25 +3123,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H6" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="I6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3107,19 +3149,28 @@
         <v>19330051920007</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F7" t="s">
-        <v>366</v>
+        <v>371</v>
+      </c>
+      <c r="H7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J7" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3127,31 +3178,31 @@
         <v>19330051920008</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H8" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="I8" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="J8" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3159,31 +3210,31 @@
         <v>19330051920014</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H9" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="I9" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="J9" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3191,31 +3242,31 @@
         <v>19330051920016</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F10" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G10" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H10" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="I10" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="J10" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3223,28 +3274,28 @@
         <v>19330051920015</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E11" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F11" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G11" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H11" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="I11" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3252,31 +3303,31 @@
         <v>19330051920012</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F12" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H12" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="I12" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="J12" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3284,31 +3335,31 @@
         <v>19330051920011</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E13" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F13" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G13" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H13" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="I13" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="J13" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3316,28 +3367,28 @@
         <v>19330051920009</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F14" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H14" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="I14" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J14" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3345,31 +3396,31 @@
         <v>19330051920010</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D15" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F15" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G15" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H15" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="I15" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J15" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3380,28 +3431,28 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D16" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E16" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F16" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G16" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H16" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="I16" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="J16" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3412,25 +3463,25 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E17" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F17" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H17" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="I17" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="J17" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3441,25 +3492,25 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E18" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F18" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="I18" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="J18" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3467,28 +3518,28 @@
         <v>19330051920422</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E19" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F19" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H19" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="I19" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="J19" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3496,31 +3547,31 @@
         <v>19330051920020</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F20" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G20" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H20" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="I20" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="J20" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3528,25 +3579,25 @@
         <v>19330051920022</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D21" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E21" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F21" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G21" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H21" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3554,31 +3605,31 @@
         <v>19330051920021</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D22" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E22" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F22" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G22" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H22" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="I22" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="J22" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3586,31 +3637,31 @@
         <v>19330051920023</v>
       </c>
       <c r="B23" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D23" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E23" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F23" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G23" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H23" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I23" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="J23" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3618,28 +3669,28 @@
         <v>19330051920026</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E24" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H24" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="I24" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="J24" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3653,25 +3704,25 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E25" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F25" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G25" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H25" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I25" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="J25" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3679,31 +3730,31 @@
         <v>19330051920025</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E26" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F26" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G26" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H26" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="I26" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="J26" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3711,28 +3762,28 @@
         <v>19330051920027</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E27" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F27" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G27" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H27" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="J27" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3740,28 +3791,28 @@
         <v>19330051920024</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D28" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E28" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F28" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H28" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I28" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="J28" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3772,28 +3823,28 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D29" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E29" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F29" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G29" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H29" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="J29" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3807,22 +3858,22 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E30" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F30" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G30" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H30" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="J30" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3836,25 +3887,25 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E31" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F31" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G31" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H31" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="I31" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="J31" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3862,31 +3913,31 @@
         <v>19330051920031</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C32" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D32" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E32" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F32" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G32" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H32" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="I32" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="J32" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3894,31 +3945,31 @@
         <v>19330051920035</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E33" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F33" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G33" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H33" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="I33" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="J33" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3926,28 +3977,28 @@
         <v>19330051920034</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D34" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E34" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F34" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H34" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="I34" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J34" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3955,31 +4006,31 @@
         <v>19330051920038</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D35" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E35" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F35" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G35" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H35" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I35" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="J35" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3987,31 +4038,31 @@
         <v>19330051920037</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E36" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G36" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H36" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="I36" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="J36" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4019,19 +4070,28 @@
         <v>19330051920036</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C37" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D37" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E37" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F37" t="s">
-        <v>396</v>
+        <v>401</v>
+      </c>
+      <c r="H37" t="s">
+        <v>446</v>
+      </c>
+      <c r="I37" t="s">
+        <v>474</v>
+      </c>
+      <c r="J37" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4039,28 +4099,28 @@
         <v>19330051920039</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D38" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E38" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F38" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H38" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="I38" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="J38" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4068,31 +4128,31 @@
         <v>19330051920040</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E39" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F39" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G39" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H39" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="I39" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="J39" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
